--- a/biology/Zoologie/Harpadon_squamosus/Harpadon_squamosus.xlsx
+++ b/biology/Zoologie/Harpadon_squamosus/Harpadon_squamosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Harpadon squamosus est une espèce de poissons de la famille des Synodontidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Harpadon squamosus a été décrite pour la première fois en 1891 par le naturaliste britannique Alfred William Alcock (1859-1933)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Harpadon squamosus a été décrite pour la première fois en 1891 par le naturaliste britannique Alfred William Alcock (1859-1933),.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se croise surtout le long des côtes du nord de l'Océan Indien, où elle évolue généralement entre 220 et 550 m de profondeur[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se croise surtout le long des côtes du nord de l'Océan Indien, où elle évolue généralement entre 220 et 550 m de profondeur.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Harpadon squamosus a une taille variant de 22 à 27 cm pour les femelles contre 19 à 22 cm pour les mâles[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harpadon squamosus a une taille variant de 22 à 27 cm pour les femelles contre 19 à 22 cm pour les mâles.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Harpadon squamosus tire son nom du latin squamosus signifiant écailleux.
 </t>
@@ -632,41 +652,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Comportement</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Prédateurs
-Proies</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Harpadon_squamosus</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Harpadon_squamosus</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) James Wood-Mason et Alfred William Alcock, « LII.—Natural history notes from H.M. Indian Marine Survey Steamer ‘Investigator,’ Commander R. F. Hoskyn, R.N., commanding.—Series II., No. 1. On the results of deep-sea dredging during the season 1890–91 », Annals and Magazine of Natural History, Londres, vol. 8, no 48,‎ décembre 1891, p. 427–452 (ISSN 0374-5481, OCLC 1481361, DOI 10.1080/00222939109459221)</t>
         </is>
